--- a/3.1/Лабы.xlsx
+++ b/3.1/Лабы.xlsx
@@ -58,18 +58,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -282,31 +276,33 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -611,10 +607,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -627,105 +623,108 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="12" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="14"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="17"/>
+      <c r="A2" s="13"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="24"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="10"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
+      <c r="A3" s="9"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
       <c r="D3" s="7"/>
-      <c r="E3" s="6"/>
+      <c r="E3" s="25"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="10"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
+      <c r="A4" s="9"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
       <c r="D4" s="7"/>
       <c r="E4" s="6"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="20"/>
+      <c r="A5" s="9"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="7"/>
       <c r="E5" s="6"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
-      <c r="B6" s="9"/>
+      <c r="A6" s="9"/>
+      <c r="B6" s="8"/>
       <c r="C6" s="5"/>
       <c r="D6" s="8"/>
       <c r="E6" s="6"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
+      <c r="A7" s="9"/>
       <c r="B7" s="5"/>
       <c r="C7" s="1"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="2"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="18"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
+      <c r="A8" s="9"/>
       <c r="B8" s="5"/>
       <c r="C8" s="1"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="2"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="19"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="21"/>
+      <c r="A9" s="17"/>
       <c r="B9" s="5"/>
       <c r="C9" s="1"/>
       <c r="D9" s="5"/>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="18"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="2"/>
+    <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="16"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="18"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="2"/>
+      <c r="A11" s="20"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="20"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="18"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="19"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="4"/>
+      <c r="A12" s="20"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="20"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="20"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="20"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D14" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/3.1/Лабы.xlsx
+++ b/3.1/Лабы.xlsx
@@ -276,7 +276,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
@@ -303,6 +303,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -610,7 +611,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -658,14 +659,14 @@
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
       <c r="D4" s="7"/>
-      <c r="E4" s="6"/>
+      <c r="E4" s="25"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="9"/>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
       <c r="D5" s="7"/>
-      <c r="E5" s="6"/>
+      <c r="E5" s="25"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="9"/>
@@ -676,7 +677,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="9"/>
-      <c r="B7" s="5"/>
+      <c r="B7" s="8"/>
       <c r="C7" s="1"/>
       <c r="D7" s="8"/>
       <c r="E7" s="18"/>
@@ -706,7 +707,7 @@
       <c r="A11" s="20"/>
       <c r="B11" s="20"/>
       <c r="C11" s="20"/>
-      <c r="D11" s="21"/>
+      <c r="D11" s="26"/>
       <c r="E11" s="20"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">

--- a/3.1/Лабы.xlsx
+++ b/3.1/Лабы.xlsx
@@ -58,7 +58,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -89,8 +89,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -233,50 +239,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
@@ -287,12 +254,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
@@ -300,10 +261,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -611,7 +575,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -623,50 +587,50 @@
     <col min="5" max="5" width="24.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="20" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="13"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="24"/>
+      <c r="A2" s="9"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="17"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="9"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
       <c r="D3" s="7"/>
-      <c r="E3" s="25"/>
+      <c r="E3" s="17"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="9"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
       <c r="D4" s="7"/>
-      <c r="E4" s="25"/>
+      <c r="E4" s="17"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="9"/>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
       <c r="D5" s="7"/>
-      <c r="E5" s="25"/>
+      <c r="E5" s="17"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="9"/>
@@ -680,52 +644,52 @@
       <c r="B7" s="8"/>
       <c r="C7" s="1"/>
       <c r="D7" s="8"/>
-      <c r="E7" s="18"/>
+      <c r="E7" s="12"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="9"/>
-      <c r="B8" s="5"/>
+      <c r="B8" s="8"/>
       <c r="C8" s="1"/>
       <c r="D8" s="8"/>
-      <c r="E8" s="19"/>
+      <c r="E8" s="13"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="17"/>
+      <c r="A9" s="11"/>
       <c r="B9" s="5"/>
       <c r="C9" s="1"/>
-      <c r="D9" s="5"/>
+      <c r="D9" s="22"/>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="16"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="4"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="20"/>
-      <c r="B11" s="20"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="20"/>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="21"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="10"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="4"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="20"/>
-      <c r="B12" s="20"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="20"/>
+      <c r="A12" s="14"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="14"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="20"/>
-      <c r="B13" s="20"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="20"/>
+      <c r="A13" s="14"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="14"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D14" s="22"/>
+      <c r="D14" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/3.1/Лабы.xlsx
+++ b/3.1/Лабы.xlsx
@@ -58,7 +58,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -89,12 +89,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -243,7 +237,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
@@ -266,8 +260,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -657,7 +650,7 @@
       <c r="A9" s="11"/>
       <c r="B9" s="5"/>
       <c r="C9" s="1"/>
-      <c r="D9" s="22"/>
+      <c r="D9" s="8"/>
       <c r="E9" s="2"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -671,7 +664,7 @@
       <c r="A11" s="10"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
-      <c r="D11" s="23"/>
+      <c r="D11" s="22"/>
       <c r="E11" s="4"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">

--- a/3.1/Лабы.xlsx
+++ b/3.1/Лабы.xlsx
@@ -58,7 +58,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -83,12 +83,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC00000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -237,20 +231,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -261,6 +253,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -568,7 +561,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -581,108 +574,108 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="18" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="9"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="17"/>
+      <c r="A2" s="8"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="15"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="9"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="17"/>
+      <c r="A3" s="8"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="15"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="9"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="17"/>
+      <c r="A4" s="8"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="15"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="9"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="17"/>
+      <c r="A5" s="8"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="15"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="9"/>
-      <c r="B6" s="8"/>
+      <c r="A6" s="8"/>
+      <c r="B6" s="7"/>
       <c r="C6" s="5"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="6"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="21"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="9"/>
-      <c r="B7" s="8"/>
+      <c r="A7" s="8"/>
+      <c r="B7" s="7"/>
       <c r="C7" s="1"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="12"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="15"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="9"/>
-      <c r="B8" s="8"/>
+      <c r="A8" s="8"/>
+      <c r="B8" s="7"/>
       <c r="C8" s="1"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="13"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="11"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="11"/>
+      <c r="A9" s="10"/>
       <c r="B9" s="5"/>
       <c r="C9" s="1"/>
-      <c r="D9" s="8"/>
+      <c r="D9" s="7"/>
       <c r="E9" s="2"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="21"/>
+      <c r="A10" s="19"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="5"/>
       <c r="E10" s="2"/>
     </row>
     <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="10"/>
+      <c r="A11" s="9"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
-      <c r="D11" s="22"/>
+      <c r="D11" s="20"/>
       <c r="E11" s="4"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="14"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="14"/>
+      <c r="A12" s="12"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="12"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="14"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="14"/>
+      <c r="A13" s="12"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="12"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D14" s="16"/>
+      <c r="D14" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
